--- a/src/main/resources/out/performance_metrics_stream_parallel.xlsx
+++ b/src/main/resources/out/performance_metrics_stream_parallel.xlsx
@@ -70,7 +70,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="0">
-        <v>0.0256925</v>
+        <v>0.737447</v>
       </c>
     </row>
   </sheetData>
